--- a/logan_manually_collected_data/inputs/Loganiaceae, alkaloids, steroids and antimalarial activity.xlsx
+++ b/logan_manually_collected_data/inputs/Loganiaceae, alkaloids, steroids and antimalarial activity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rbgkew-my.sharepoint.com/personal/a_richard-bollans_kew_org/Documents/Loganiaceae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F905CBB6-DFAF-46A4-97C8-F9119F6F42A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0387AE2-B50C-4CAD-A325-0E901E257D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="615" windowWidth="20850" windowHeight="23385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="615" windowWidth="20850" windowHeight="23385" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -2484,26 +2484,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">A. A. Magid </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>et al., Phytochemistry</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">, 2012, </t>
     </r>
@@ -2511,20 +2512,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>77</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>, 268 - 274.</t>
     </r>
@@ -2860,26 +2857,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">M. Frederich </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>et al., Antimicrob.Agents Chemother.,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">1999, </t>
     </r>
@@ -2887,20 +2885,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>43</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>, 2328 - 2331.</t>
     </r>
@@ -3004,26 +2998,27 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">W. Syafii </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>et al, Res. J. Med. Plant</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">, 2016, </t>
     </r>
@@ -3031,46 +3026,43 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>10</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>, 6-7, 403- 408.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
       <t xml:space="preserve">A. T. Tchinda </t>
     </r>
     <r>
       <rPr>
         <i/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>et al., Planta Med.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t xml:space="preserve">, 2012, </t>
     </r>
@@ -3078,20 +3070,16 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>78</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
       </rPr>
       <t>, 377 - 382.</t>
     </r>
@@ -6129,8 +6117,8 @@
   <dimension ref="A1:AE497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C432" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -13241,8 +13229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A64689F-3242-4587-9918-F0F21CE08552}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13498,7 +13486,7 @@
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>794</v>
       </c>
     </row>
@@ -13562,7 +13550,7 @@
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>802</v>
       </c>
     </row>
@@ -13589,7 +13577,7 @@
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>806</v>
       </c>
     </row>
@@ -13597,7 +13585,7 @@
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>807</v>
       </c>
     </row>
